--- a/Data y gráficos/Gráficos de Tesis/FEVD/FEVD findex 10k.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/FEVD/FEVD findex 10k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/Gráficos de Tesis/FEVD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD47FA4-2277-4FE7-A874-0C722207D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{ABD47FA4-2277-4FE7-A874-0C722207D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75AAFC7-32C9-4191-BC47-4AE2653133FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4B6C31DB-4536-4C2C-8AFB-46905432CFCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4B6C31DB-4536-4C2C-8AFB-46905432CFCE}"/>
   </bookViews>
   <sheets>
     <sheet name="FEVD" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0270D5-321C-40D6-8534-8BE2490B1233}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +647,7 @@
         <v>0.16995544099606924</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0.16267278702074148</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -782,8 +782,12 @@
       <c r="V4">
         <v>7.6167605476273229E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <f>AVERAGE(C4:V4)</f>
+        <v>5.0466727972404105E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -851,7 +855,7 @@
         <v>4.9585557030534536E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -919,7 +923,7 @@
         <v>0.19938527193127931</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -987,7 +991,7 @@
         <v>5.5532878671228379E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>0.12511175966639926</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>0.11477038157894542</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>0.21370429119251338</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1258,8 +1262,12 @@
       <c r="V11">
         <v>8.2747877654223589E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <f>AVERAGE(C11:V11)</f>
+        <v>6.0481962379327681E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>4.6179646965932769E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>0.18430005739388342</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>5.84794795774706E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>0.12880897319059656</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>0.1463929025067176</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>0.16352659546407675</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1734,8 +1742,12 @@
       <c r="V18">
         <v>7.7841178339049383E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <f>AVERAGE(C18:V18)</f>
+        <v>6.2232833127385159E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>7.3151288650518009E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>0.20080159365712241</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>4.7101317056207154E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>0.12488801179861894</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>0.13042114234099225</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>0.12068122596992667</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2210,8 +2222,12 @@
       <c r="V25">
         <v>6.8125277653217658E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <f>AVERAGE(C25:V25)</f>
+        <v>5.5793481516106871E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2279,7 +2295,7 @@
         <v>4.5945748321080615E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2347,7 +2363,7 @@
         <v>0.36240023080719685</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2415,7 +2431,7 @@
         <v>5.72536771309217E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2483,7 +2499,7 @@
         <v>7.9258313237564465E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2551,7 +2567,7 @@
         <v>0.12357513137295785</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2619,7 +2635,7 @@
         <v>0.10623062021764623</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2686,8 +2702,12 @@
       <c r="V32">
         <v>6.8939436775018736E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <f>AVERAGE(C32:V32)</f>
+        <v>6.0706939180202514E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +2775,7 @@
         <v>4.4085703625708086E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2823,7 +2843,7 @@
         <v>0.37643986768133131</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>7.8337330440364228E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2959,7 +2979,7 @@
         <v>7.7023982732491947E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3047,7 @@
         <v>0.13065540043971691</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3095,7 +3115,7 @@
         <v>0.10867460457836867</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3162,8 +3182,12 @@
       <c r="V39">
         <v>6.4995838227217134E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39">
+        <f>AVERAGE(C39:V39)</f>
+        <v>5.360137867824584E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3231,7 +3255,7 @@
         <v>4.4380821931217271E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3299,7 +3323,7 @@
         <v>0.38832394940002879</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3367,7 +3391,7 @@
         <v>6.5622027394031793E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3444,7 +3468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E4AF94-0E09-4910-BAB2-9022D916E739}">
   <dimension ref="B2:AD149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
